--- a/leave/src/main/resources/TestData/Accural/LeaveBalanceTests.xlsx
+++ b/leave/src/main/resources/TestData/Accural/LeaveBalanceTests.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\LeaveBalanceNotice\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D1C7AC-5BD5-4122-A0F9-8ACF8D640F5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCFFB57-4355-4B68-8D29-AAE1E719BCC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2648" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2648" uniqueCount="276">
   <si>
     <t>Test Case</t>
   </si>
@@ -1603,9 +1603,6 @@
   </si>
   <si>
     <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
   <si>
     <t>LeaveBalance_09</t>
@@ -1975,12 +1972,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:V124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2613,7 +2609,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>267</v>
@@ -4846,7 +4842,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="331.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>19</v>
       </c>
@@ -4854,7 +4850,7 @@
         <v>63</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>275</v>
+        <v>21</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>185</v>
@@ -4914,7 +4910,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>19</v>
       </c>
@@ -4922,7 +4918,7 @@
         <v>64</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>275</v>
+        <v>21</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>186</v>
@@ -4982,7 +4978,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>19</v>
       </c>
@@ -4990,7 +4986,7 @@
         <v>65</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>187</v>
@@ -5050,7 +5046,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>19</v>
       </c>
@@ -5058,7 +5054,7 @@
         <v>66</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>188</v>
@@ -5118,7 +5114,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>19</v>
       </c>
@@ -5126,7 +5122,7 @@
         <v>67</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>189</v>
@@ -5186,7 +5182,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>19</v>
       </c>
@@ -5194,7 +5190,7 @@
         <v>68</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>190</v>
@@ -5254,7 +5250,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>19</v>
       </c>
@@ -5262,7 +5258,7 @@
         <v>69</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>191</v>
@@ -5322,7 +5318,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>19</v>
       </c>
@@ -5330,7 +5326,7 @@
         <v>70</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>192</v>
@@ -5390,7 +5386,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>19</v>
       </c>
@@ -5398,7 +5394,7 @@
         <v>71</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>193</v>
@@ -5458,7 +5454,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>19</v>
       </c>
@@ -5466,7 +5462,7 @@
         <v>72</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>194</v>
@@ -5526,7 +5522,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="388.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>19</v>
       </c>
@@ -5534,7 +5530,7 @@
         <v>73</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>195</v>
@@ -5594,7 +5590,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>19</v>
       </c>
@@ -5602,7 +5598,7 @@
         <v>74</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>196</v>
@@ -5662,7 +5658,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>19</v>
       </c>
@@ -5670,7 +5666,7 @@
         <v>75</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>197</v>
@@ -5730,7 +5726,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>19</v>
       </c>
@@ -5738,7 +5734,7 @@
         <v>76</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>198</v>
@@ -5798,7 +5794,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>19</v>
       </c>
@@ -5806,7 +5802,7 @@
         <v>77</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>199</v>
@@ -5866,7 +5862,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>19</v>
       </c>
@@ -5874,7 +5870,7 @@
         <v>78</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>200</v>
@@ -5934,7 +5930,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>19</v>
       </c>
@@ -5942,7 +5938,7 @@
         <v>79</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>201</v>
@@ -6002,7 +5998,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>19</v>
       </c>
@@ -6010,7 +6006,7 @@
         <v>80</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>202</v>
@@ -6070,7 +6066,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>19</v>
       </c>
@@ -6078,7 +6074,7 @@
         <v>81</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>203</v>
@@ -6138,7 +6134,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>19</v>
       </c>
@@ -6146,7 +6142,7 @@
         <v>82</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>204</v>
@@ -6206,7 +6202,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>19</v>
       </c>
@@ -6214,7 +6210,7 @@
         <v>83</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>205</v>
@@ -6274,7 +6270,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>19</v>
       </c>
@@ -6282,7 +6278,7 @@
         <v>84</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>206</v>
@@ -6342,7 +6338,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>19</v>
       </c>
@@ -6350,7 +6346,7 @@
         <v>85</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>207</v>
@@ -6410,7 +6406,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>19</v>
       </c>
@@ -6418,7 +6414,7 @@
         <v>86</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>208</v>
@@ -6478,7 +6474,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>19</v>
       </c>
@@ -6486,7 +6482,7 @@
         <v>87</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>209</v>
@@ -6546,7 +6542,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>19</v>
       </c>
@@ -6554,7 +6550,7 @@
         <v>88</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>210</v>
@@ -6614,7 +6610,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>19</v>
       </c>
@@ -6622,7 +6618,7 @@
         <v>89</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>211</v>
@@ -6682,7 +6678,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>19</v>
       </c>
@@ -6690,7 +6686,7 @@
         <v>90</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>212</v>
@@ -6750,7 +6746,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>19</v>
       </c>
@@ -6758,7 +6754,7 @@
         <v>91</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>213</v>
@@ -6818,7 +6814,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>19</v>
       </c>
@@ -6826,7 +6822,7 @@
         <v>92</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>214</v>
@@ -6886,7 +6882,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>19</v>
       </c>
@@ -6894,7 +6890,7 @@
         <v>93</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>215</v>
@@ -6954,7 +6950,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>19</v>
       </c>
@@ -6962,7 +6958,7 @@
         <v>94</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>216</v>
@@ -7022,7 +7018,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>19</v>
       </c>
@@ -7030,7 +7026,7 @@
         <v>95</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>217</v>
@@ -7090,7 +7086,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>19</v>
       </c>
@@ -7098,7 +7094,7 @@
         <v>96</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>218</v>
@@ -7158,7 +7154,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>19</v>
       </c>
@@ -7166,7 +7162,7 @@
         <v>97</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>219</v>
@@ -7226,7 +7222,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>19</v>
       </c>
@@ -7234,7 +7230,7 @@
         <v>98</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>220</v>
@@ -7294,7 +7290,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>19</v>
       </c>
@@ -7302,7 +7298,7 @@
         <v>99</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>221</v>
@@ -7362,7 +7358,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>19</v>
       </c>
@@ -7370,7 +7366,7 @@
         <v>100</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>222</v>
@@ -7430,7 +7426,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>19</v>
       </c>
@@ -7438,7 +7434,7 @@
         <v>101</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>223</v>
@@ -7498,7 +7494,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>19</v>
       </c>
@@ -7506,7 +7502,7 @@
         <v>102</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>224</v>
@@ -7566,7 +7562,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>19</v>
       </c>
@@ -7574,7 +7570,7 @@
         <v>103</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>225</v>
@@ -10423,13 +10419,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V124" xr:uid="{0FA11716-442A-4501-895C-1125CEC517F7}">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="No"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:V124" xr:uid="{0FA11716-442A-4501-895C-1125CEC517F7}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/leave/src/main/resources/TestData/Accural/LeaveBalanceTests.xlsx
+++ b/leave/src/main/resources/TestData/Accural/LeaveBalanceTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D1C7AC-5BD5-4122-A0F9-8ACF8D640F5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8755ADBC-164B-4BC4-9604-7C9A2F92E6F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2648" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2648" uniqueCount="276">
   <si>
     <t>Test Case</t>
   </si>
@@ -1603,9 +1603,6 @@
   </si>
   <si>
     <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
   <si>
     <t>LeaveBalance_09</t>
@@ -1975,12 +1972,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:V124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42:C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2613,7 +2609,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>267</v>
@@ -4846,7 +4842,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="331.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>19</v>
       </c>
@@ -4854,7 +4850,7 @@
         <v>63</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>185</v>
@@ -4914,7 +4910,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>19</v>
       </c>
@@ -4922,7 +4918,7 @@
         <v>64</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>186</v>
@@ -4982,7 +4978,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>19</v>
       </c>
@@ -4990,7 +4986,7 @@
         <v>65</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>187</v>
@@ -5050,7 +5046,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>19</v>
       </c>
@@ -5058,7 +5054,7 @@
         <v>66</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>188</v>
@@ -5118,7 +5114,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>19</v>
       </c>
@@ -5126,7 +5122,7 @@
         <v>67</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>189</v>
@@ -5186,7 +5182,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>19</v>
       </c>
@@ -5194,7 +5190,7 @@
         <v>68</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>190</v>
@@ -5254,7 +5250,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>19</v>
       </c>
@@ -5262,7 +5258,7 @@
         <v>69</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>191</v>
@@ -5322,7 +5318,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>19</v>
       </c>
@@ -5330,7 +5326,7 @@
         <v>70</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>192</v>
@@ -5390,7 +5386,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>19</v>
       </c>
@@ -5398,7 +5394,7 @@
         <v>71</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>193</v>
@@ -5458,7 +5454,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>19</v>
       </c>
@@ -5466,7 +5462,7 @@
         <v>72</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>194</v>
@@ -5526,7 +5522,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="388.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>19</v>
       </c>
@@ -5534,7 +5530,7 @@
         <v>73</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>195</v>
@@ -5594,7 +5590,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>19</v>
       </c>
@@ -5602,7 +5598,7 @@
         <v>74</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>196</v>
@@ -5662,7 +5658,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>19</v>
       </c>
@@ -5670,7 +5666,7 @@
         <v>75</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>197</v>
@@ -5730,7 +5726,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>19</v>
       </c>
@@ -5738,7 +5734,7 @@
         <v>76</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>198</v>
@@ -5798,7 +5794,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>19</v>
       </c>
@@ -5806,7 +5802,7 @@
         <v>77</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>199</v>
@@ -5866,7 +5862,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>19</v>
       </c>
@@ -5874,7 +5870,7 @@
         <v>78</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>200</v>
@@ -5934,7 +5930,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>19</v>
       </c>
@@ -5942,7 +5938,7 @@
         <v>79</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>201</v>
@@ -6002,7 +5998,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>19</v>
       </c>
@@ -6010,7 +6006,7 @@
         <v>80</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>202</v>
@@ -6070,7 +6066,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>19</v>
       </c>
@@ -6078,7 +6074,7 @@
         <v>81</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>203</v>
@@ -6138,7 +6134,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>19</v>
       </c>
@@ -6146,7 +6142,7 @@
         <v>82</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>204</v>
@@ -6206,7 +6202,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>19</v>
       </c>
@@ -6214,7 +6210,7 @@
         <v>83</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>205</v>
@@ -6274,7 +6270,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>19</v>
       </c>
@@ -6282,7 +6278,7 @@
         <v>84</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>206</v>
@@ -6342,7 +6338,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>19</v>
       </c>
@@ -6350,7 +6346,7 @@
         <v>85</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>207</v>
@@ -6410,7 +6406,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>19</v>
       </c>
@@ -6418,7 +6414,7 @@
         <v>86</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>208</v>
@@ -6478,7 +6474,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>19</v>
       </c>
@@ -6486,7 +6482,7 @@
         <v>87</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>209</v>
@@ -6546,7 +6542,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>19</v>
       </c>
@@ -6554,7 +6550,7 @@
         <v>88</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>210</v>
@@ -6614,7 +6610,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>19</v>
       </c>
@@ -6622,7 +6618,7 @@
         <v>89</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>211</v>
@@ -6682,7 +6678,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>19</v>
       </c>
@@ -6690,7 +6686,7 @@
         <v>90</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>212</v>
@@ -6750,7 +6746,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>19</v>
       </c>
@@ -6758,7 +6754,7 @@
         <v>91</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>213</v>
@@ -6818,7 +6814,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>19</v>
       </c>
@@ -6826,7 +6822,7 @@
         <v>92</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>214</v>
@@ -6886,7 +6882,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>19</v>
       </c>
@@ -6894,7 +6890,7 @@
         <v>93</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>215</v>
@@ -6954,7 +6950,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>19</v>
       </c>
@@ -6962,7 +6958,7 @@
         <v>94</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>216</v>
@@ -7022,7 +7018,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>19</v>
       </c>
@@ -7030,7 +7026,7 @@
         <v>95</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>217</v>
@@ -7090,7 +7086,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>19</v>
       </c>
@@ -7098,7 +7094,7 @@
         <v>96</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>218</v>
@@ -7158,7 +7154,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>19</v>
       </c>
@@ -7166,7 +7162,7 @@
         <v>97</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>219</v>
@@ -7226,7 +7222,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>19</v>
       </c>
@@ -7234,7 +7230,7 @@
         <v>98</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>220</v>
@@ -7294,7 +7290,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>19</v>
       </c>
@@ -7302,7 +7298,7 @@
         <v>99</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>221</v>
@@ -7362,7 +7358,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>19</v>
       </c>
@@ -7370,7 +7366,7 @@
         <v>100</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>222</v>
@@ -7430,7 +7426,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>19</v>
       </c>
@@ -7438,7 +7434,7 @@
         <v>101</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>223</v>
@@ -7498,7 +7494,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>19</v>
       </c>
@@ -7506,7 +7502,7 @@
         <v>102</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>224</v>
@@ -7566,7 +7562,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>19</v>
       </c>
@@ -7574,7 +7570,7 @@
         <v>103</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>225</v>
@@ -10423,13 +10419,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V124" xr:uid="{0FA11716-442A-4501-895C-1125CEC517F7}">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="No"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:V124" xr:uid="{0FA11716-442A-4501-895C-1125CEC517F7}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/leave/src/main/resources/TestData/Accural/LeaveBalanceTests.xlsx
+++ b/leave/src/main/resources/TestData/Accural/LeaveBalanceTests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\yeten\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8755ADBC-164B-4BC4-9604-7C9A2F92E6F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99937E1D-6060-4222-8CA6-4B44ECF9BA31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="468" yWindow="516" windowWidth="22572" windowHeight="11844" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeaveBalance" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2648" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2648" uniqueCount="278">
   <si>
     <t>Test Case</t>
   </si>
@@ -1606,6 +1606,12 @@
   </si>
   <si>
     <t>LeaveBalance_09</t>
+  </si>
+  <si>
+    <t>Financial</t>
+  </si>
+  <si>
+    <t>April</t>
   </si>
 </sst>
 </file>
@@ -1974,9 +1980,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42:C124"/>
+      <selection pane="bottomLeft" activeCell="F124" sqref="F124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10430,8 +10436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F6D715-F1A2-4992-BE3D-118FEE3675AA}">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10521,10 +10527,10 @@
         <v>267</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>22</v>

--- a/leave/src/main/resources/TestData/Accural/LeaveBalanceTests.xlsx
+++ b/leave/src/main/resources/TestData/Accural/LeaveBalanceTests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\yeten\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99937E1D-6060-4222-8CA6-4B44ECF9BA31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A166168-EF44-43E7-909C-D97B2B38207C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="468" yWindow="516" windowWidth="22572" windowHeight="11844" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="22572" windowHeight="11844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeaveBalance" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2648" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2648" uniqueCount="276">
   <si>
     <t>Test Case</t>
   </si>
@@ -1590,16 +1590,10 @@
     </r>
   </si>
   <si>
-    <t>Custom Leave Cycle</t>
-  </si>
-  <si>
     <t>CustomLeaveCycleMonth</t>
   </si>
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>august</t>
   </si>
   <si>
     <t>yes</t>
@@ -1980,9 +1974,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V124"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F124" sqref="F124"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:G124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2012,7 +2006,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -2077,16 +2071,16 @@
         <v>267</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>21</v>
@@ -2145,16 +2139,16 @@
         <v>267</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>21</v>
@@ -2213,16 +2207,16 @@
         <v>267</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>21</v>
@@ -2281,16 +2275,16 @@
         <v>267</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>21</v>
@@ -2349,16 +2343,16 @@
         <v>267</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>21</v>
@@ -2417,16 +2411,16 @@
         <v>267</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>21</v>
@@ -2485,16 +2479,16 @@
         <v>267</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>21</v>
@@ -2553,16 +2547,16 @@
         <v>267</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>21</v>
@@ -2615,22 +2609,22 @@
         <v>22</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>267</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>21</v>
@@ -2689,16 +2683,16 @@
         <v>267</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>21</v>
@@ -2757,16 +2751,16 @@
         <v>267</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>21</v>
@@ -2825,16 +2819,16 @@
         <v>267</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>21</v>
@@ -2893,16 +2887,16 @@
         <v>267</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>21</v>
@@ -2961,16 +2955,16 @@
         <v>267</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>21</v>
@@ -3029,16 +3023,16 @@
         <v>267</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>21</v>
@@ -3097,16 +3091,16 @@
         <v>267</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>21</v>
@@ -3165,16 +3159,16 @@
         <v>267</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>21</v>
@@ -3233,16 +3227,16 @@
         <v>267</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>21</v>
@@ -3301,16 +3295,16 @@
         <v>267</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>21</v>
@@ -3369,16 +3363,16 @@
         <v>267</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>21</v>
@@ -3437,16 +3431,16 @@
         <v>267</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>21</v>
@@ -3505,16 +3499,16 @@
         <v>267</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>21</v>
@@ -3573,16 +3567,16 @@
         <v>267</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>21</v>
@@ -3641,16 +3635,16 @@
         <v>267</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>21</v>
@@ -3709,16 +3703,16 @@
         <v>267</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>21</v>
@@ -3777,16 +3771,16 @@
         <v>267</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>21</v>
@@ -3845,16 +3839,16 @@
         <v>267</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>21</v>
@@ -3913,16 +3907,16 @@
         <v>267</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>21</v>
@@ -3981,16 +3975,16 @@
         <v>267</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>21</v>
@@ -4049,16 +4043,16 @@
         <v>267</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>21</v>
@@ -4117,16 +4111,16 @@
         <v>267</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>21</v>
@@ -4185,16 +4179,16 @@
         <v>267</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>21</v>
@@ -4253,16 +4247,16 @@
         <v>267</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>21</v>
@@ -4321,16 +4315,16 @@
         <v>267</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>21</v>
@@ -4389,16 +4383,16 @@
         <v>267</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>21</v>
@@ -4457,16 +4451,16 @@
         <v>267</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>21</v>
@@ -4525,16 +4519,16 @@
         <v>267</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>21</v>
@@ -4593,16 +4587,16 @@
         <v>267</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>21</v>
@@ -4661,16 +4655,16 @@
         <v>267</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>21</v>
@@ -4729,16 +4723,16 @@
         <v>267</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>21</v>
@@ -4797,16 +4791,16 @@
         <v>267</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>21</v>
@@ -4865,16 +4859,16 @@
         <v>267</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>22</v>
@@ -4933,16 +4927,16 @@
         <v>267</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>22</v>
@@ -5001,16 +4995,16 @@
         <v>267</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>22</v>
@@ -5069,16 +5063,16 @@
         <v>267</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>22</v>
@@ -5137,16 +5131,16 @@
         <v>267</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>22</v>
@@ -5205,16 +5199,16 @@
         <v>267</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>22</v>
@@ -5273,16 +5267,16 @@
         <v>267</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>22</v>
@@ -5341,16 +5335,16 @@
         <v>267</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>22</v>
@@ -5409,16 +5403,16 @@
         <v>267</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>22</v>
@@ -5477,16 +5471,16 @@
         <v>267</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>22</v>
@@ -5545,16 +5539,16 @@
         <v>267</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J53" s="3" t="s">
         <v>22</v>
@@ -5613,16 +5607,16 @@
         <v>267</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>22</v>
@@ -5681,16 +5675,16 @@
         <v>267</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J55" s="3" t="s">
         <v>22</v>
@@ -5749,16 +5743,16 @@
         <v>267</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>22</v>
@@ -5817,16 +5811,16 @@
         <v>267</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>22</v>
@@ -5885,16 +5879,16 @@
         <v>267</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>22</v>
@@ -5953,16 +5947,16 @@
         <v>267</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>22</v>
@@ -6021,16 +6015,16 @@
         <v>267</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>22</v>
@@ -6089,16 +6083,16 @@
         <v>267</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J61" s="3" t="s">
         <v>22</v>
@@ -6157,16 +6151,16 @@
         <v>267</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>22</v>
@@ -6225,16 +6219,16 @@
         <v>267</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>22</v>
@@ -6293,16 +6287,16 @@
         <v>267</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J64" s="3" t="s">
         <v>22</v>
@@ -6361,16 +6355,16 @@
         <v>267</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J65" s="3" t="s">
         <v>22</v>
@@ -6429,16 +6423,16 @@
         <v>267</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>22</v>
@@ -6497,16 +6491,16 @@
         <v>267</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J67" s="3" t="s">
         <v>22</v>
@@ -6565,16 +6559,16 @@
         <v>267</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J68" s="3" t="s">
         <v>22</v>
@@ -6633,16 +6627,16 @@
         <v>267</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J69" s="3" t="s">
         <v>22</v>
@@ -6701,16 +6695,16 @@
         <v>267</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J70" s="3" t="s">
         <v>22</v>
@@ -6769,16 +6763,16 @@
         <v>267</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J71" s="3" t="s">
         <v>22</v>
@@ -6837,16 +6831,16 @@
         <v>267</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>22</v>
@@ -6905,16 +6899,16 @@
         <v>267</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J73" s="3" t="s">
         <v>22</v>
@@ -6973,16 +6967,16 @@
         <v>267</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J74" s="3" t="s">
         <v>22</v>
@@ -7041,16 +7035,16 @@
         <v>267</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J75" s="3" t="s">
         <v>22</v>
@@ -7109,16 +7103,16 @@
         <v>267</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>22</v>
@@ -7177,16 +7171,16 @@
         <v>267</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J77" s="3" t="s">
         <v>22</v>
@@ -7245,16 +7239,16 @@
         <v>267</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J78" s="3" t="s">
         <v>22</v>
@@ -7313,16 +7307,16 @@
         <v>267</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J79" s="3" t="s">
         <v>22</v>
@@ -7381,16 +7375,16 @@
         <v>267</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J80" s="3" t="s">
         <v>22</v>
@@ -7449,16 +7443,16 @@
         <v>267</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>22</v>
@@ -7517,16 +7511,16 @@
         <v>267</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J82" s="3" t="s">
         <v>22</v>
@@ -7585,16 +7579,16 @@
         <v>267</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>22</v>
@@ -7653,16 +7647,16 @@
         <v>267</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J84" s="3" t="s">
         <v>21</v>
@@ -7721,16 +7715,16 @@
         <v>267</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H85" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J85" s="3" t="s">
         <v>21</v>
@@ -7789,16 +7783,16 @@
         <v>267</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J86" s="3" t="s">
         <v>21</v>
@@ -7857,16 +7851,16 @@
         <v>267</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J87" s="3" t="s">
         <v>21</v>
@@ -7925,16 +7919,16 @@
         <v>267</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J88" s="3" t="s">
         <v>21</v>
@@ -7993,16 +7987,16 @@
         <v>267</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>21</v>
@@ -8061,16 +8055,16 @@
         <v>267</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J90" s="3" t="s">
         <v>21</v>
@@ -8129,16 +8123,16 @@
         <v>267</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>21</v>
@@ -8197,16 +8191,16 @@
         <v>267</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J92" s="3" t="s">
         <v>21</v>
@@ -8265,16 +8259,16 @@
         <v>267</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I93" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J93" s="3" t="s">
         <v>21</v>
@@ -8333,16 +8327,16 @@
         <v>267</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>21</v>
@@ -8401,16 +8395,16 @@
         <v>267</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J95" s="3" t="s">
         <v>21</v>
@@ -8469,16 +8463,16 @@
         <v>267</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I96" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J96" s="3" t="s">
         <v>21</v>
@@ -8537,16 +8531,16 @@
         <v>267</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J97" s="3" t="s">
         <v>21</v>
@@ -8605,16 +8599,16 @@
         <v>267</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J98" s="3" t="s">
         <v>21</v>
@@ -8673,16 +8667,16 @@
         <v>267</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I99" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J99" s="3" t="s">
         <v>21</v>
@@ -8741,16 +8735,16 @@
         <v>267</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>21</v>
@@ -8809,16 +8803,16 @@
         <v>267</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>21</v>
@@ -8877,16 +8871,16 @@
         <v>267</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>21</v>
@@ -8945,16 +8939,16 @@
         <v>267</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H103" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J103" s="3" t="s">
         <v>21</v>
@@ -9013,16 +9007,16 @@
         <v>267</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J104" s="3" t="s">
         <v>21</v>
@@ -9081,16 +9075,16 @@
         <v>267</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H105" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I105" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J105" s="3" t="s">
         <v>21</v>
@@ -9149,16 +9143,16 @@
         <v>267</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J106" s="3" t="s">
         <v>21</v>
@@ -9217,16 +9211,16 @@
         <v>267</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H107" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J107" s="3" t="s">
         <v>21</v>
@@ -9285,16 +9279,16 @@
         <v>267</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H108" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J108" s="3" t="s">
         <v>21</v>
@@ -9353,16 +9347,16 @@
         <v>267</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H109" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J109" s="3" t="s">
         <v>21</v>
@@ -9421,16 +9415,16 @@
         <v>267</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H110" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J110" s="3" t="s">
         <v>21</v>
@@ -9489,16 +9483,16 @@
         <v>267</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H111" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I111" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J111" s="3" t="s">
         <v>21</v>
@@ -9557,16 +9551,16 @@
         <v>267</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H112" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I112" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J112" s="3" t="s">
         <v>21</v>
@@ -9625,16 +9619,16 @@
         <v>267</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H113" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J113" s="3" t="s">
         <v>21</v>
@@ -9693,16 +9687,16 @@
         <v>267</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H114" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I114" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J114" s="3" t="s">
         <v>21</v>
@@ -9761,16 +9755,16 @@
         <v>267</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H115" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I115" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J115" s="3" t="s">
         <v>21</v>
@@ -9829,16 +9823,16 @@
         <v>267</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H116" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I116" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J116" s="3" t="s">
         <v>21</v>
@@ -9897,16 +9891,16 @@
         <v>267</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H117" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I117" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J117" s="3" t="s">
         <v>21</v>
@@ -9965,16 +9959,16 @@
         <v>267</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H118" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I118" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J118" s="3" t="s">
         <v>21</v>
@@ -10033,16 +10027,16 @@
         <v>267</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H119" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I119" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J119" s="3" t="s">
         <v>21</v>
@@ -10101,16 +10095,16 @@
         <v>267</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H120" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I120" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J120" s="3" t="s">
         <v>21</v>
@@ -10169,16 +10163,16 @@
         <v>267</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H121" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I121" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J121" s="3" t="s">
         <v>21</v>
@@ -10237,16 +10231,16 @@
         <v>267</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H122" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I122" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J122" s="3" t="s">
         <v>21</v>
@@ -10305,16 +10299,16 @@
         <v>267</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H123" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I123" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J123" s="3" t="s">
         <v>21</v>
@@ -10373,16 +10367,16 @@
         <v>267</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H124" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I124" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J124" s="3" t="s">
         <v>21</v>
@@ -10436,8 +10430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F6D715-F1A2-4992-BE3D-118FEE3675AA}">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10462,7 +10456,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -10518,7 +10512,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>145</v>
@@ -10527,16 +10521,16 @@
         <v>267</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>21</v>
